--- a/results/comparaison/depolarization_prism.xlsx
+++ b/results/comparaison/depolarization_prism.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:BI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:61">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -403,110 +403,507 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:61">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7912341558569144</v>
+        <v>0.7454430092521234</v>
       </c>
       <c r="C2">
-        <v>0.8388156697263839</v>
+        <v>0.8077042382229235</v>
       </c>
       <c r="D2">
-        <v>0.7459867745920895</v>
+        <v>0.8250879634054036</v>
       </c>
       <c r="E2">
-        <v>0.7695601974573869</v>
+        <v>0.8292907418165095</v>
       </c>
       <c r="F2">
-        <v>0.8002952966334814</v>
+        <v>0.7734325885960224</v>
       </c>
       <c r="G2">
-        <v>0.9274556170858586</v>
+        <v>0.7549201289328284</v>
       </c>
       <c r="H2">
-        <v>0.9000955814700772</v>
+        <v>0.7883989258858415</v>
       </c>
       <c r="I2">
-        <v>0.9395649722719572</v>
+        <v>0.7624504419707142</v>
       </c>
       <c r="J2">
-        <v>0.9143842724690198</v>
+        <v>0.8136221542057647</v>
       </c>
       <c r="K2">
-        <v>0.9465276692185026</v>
+        <v>0.7517519663368213</v>
+      </c>
+      <c r="L2">
+        <v>0.7745616724971529</v>
+      </c>
+      <c r="M2">
+        <v>0.7306362036798042</v>
+      </c>
+      <c r="N2">
+        <v>0.6886497481962408</v>
+      </c>
+      <c r="O2">
+        <v>0.7580375125373633</v>
+      </c>
+      <c r="P2">
+        <v>0.6925605048382295</v>
+      </c>
+      <c r="Q2">
+        <v>0.7484915161349317</v>
+      </c>
+      <c r="R2">
+        <v>0.6874985799050199</v>
+      </c>
+      <c r="S2">
+        <v>0.7883544276411305</v>
+      </c>
+      <c r="T2">
+        <v>0.769563829738217</v>
+      </c>
+      <c r="U2">
+        <v>0.7708550093255091</v>
+      </c>
+      <c r="V2">
+        <v>0.658239617023253</v>
+      </c>
+      <c r="W2">
+        <v>0.691342744711299</v>
+      </c>
+      <c r="X2">
+        <v>0.7544155266849395</v>
+      </c>
+      <c r="Y2">
+        <v>0.691895961837681</v>
+      </c>
+      <c r="Z2">
+        <v>0.7530978845116576</v>
+      </c>
+      <c r="AA2">
+        <v>0.7390310297693294</v>
+      </c>
+      <c r="AB2">
+        <v>0.8002900644932733</v>
+      </c>
+      <c r="AC2">
+        <v>0.7637438839888584</v>
+      </c>
+      <c r="AD2">
+        <v>0.7350127070352573</v>
+      </c>
+      <c r="AE2">
+        <v>0.7317943558767754</v>
+      </c>
+      <c r="AF2">
+        <v>0.9487011093683432</v>
+      </c>
+      <c r="AG2">
+        <v>0.9244602500794328</v>
+      </c>
+      <c r="AH2">
+        <v>0.9130537530345106</v>
+      </c>
+      <c r="AI2">
+        <v>0.8977825188573955</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9279586612994746</v>
+      </c>
+      <c r="AK2">
+        <v>0.956339192782682</v>
+      </c>
+      <c r="AL2">
+        <v>0.9545572561226964</v>
+      </c>
+      <c r="AM2">
+        <v>0.9595374326040998</v>
+      </c>
+      <c r="AN2">
+        <v>0.9443745644215316</v>
+      </c>
+      <c r="AO2">
+        <v>0.9425522387612402</v>
+      </c>
+      <c r="AP2">
+        <v>0.9329129505586424</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9491627889853342</v>
+      </c>
+      <c r="AR2">
+        <v>0.9334731969361147</v>
+      </c>
+      <c r="AS2">
+        <v>0.915576344860532</v>
+      </c>
+      <c r="AT2">
+        <v>0.9459162824631834</v>
+      </c>
+      <c r="AU2">
+        <v>0.9552921678284096</v>
+      </c>
+      <c r="AV2">
+        <v>0.9494585600112924</v>
+      </c>
+      <c r="AW2">
+        <v>0.93749082355031</v>
+      </c>
+      <c r="AX2">
+        <v>0.9297218446264616</v>
+      </c>
+      <c r="AY2">
+        <v>0.9243248544541872</v>
+      </c>
+      <c r="AZ2">
+        <v>0.93648426253813</v>
+      </c>
+      <c r="BA2">
+        <v>0.9313228596402728</v>
+      </c>
+      <c r="BB2">
+        <v>0.9352241812123512</v>
+      </c>
+      <c r="BC2">
+        <v>0.9470115649661232</v>
+      </c>
+      <c r="BD2">
+        <v>0.932724424018805</v>
+      </c>
+      <c r="BE2">
+        <v>0.9139164012350866</v>
+      </c>
+      <c r="BF2">
+        <v>0.8855585622414214</v>
+      </c>
+      <c r="BG2">
+        <v>0.9490114352790716</v>
+      </c>
+      <c r="BH2">
+        <v>0.941391852440822</v>
+      </c>
+      <c r="BI2">
+        <v>0.9271998100847956</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:61">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.7461902890167746</v>
-      </c>
       <c r="C3">
-        <v>0.8303540420803289</v>
+        <v>0.741194725394399</v>
       </c>
       <c r="D3">
-        <v>0.7582301129924733</v>
+        <v>0.7950961840161143</v>
       </c>
       <c r="E3">
-        <v>0.755318748939195</v>
+        <v>0.7490884236060537</v>
       </c>
       <c r="F3">
-        <v>0.7835805602532837</v>
+        <v>0.8575954858045879</v>
       </c>
       <c r="G3">
-        <v>0.9232749978327772</v>
+        <v>0.7510930386599439</v>
       </c>
       <c r="H3">
-        <v>0.9051866193634714</v>
+        <v>0.7575410052462417</v>
       </c>
       <c r="I3">
-        <v>0.9318212135589804</v>
+        <v>0.7382988386201523</v>
       </c>
       <c r="J3">
-        <v>0.9040502377980176</v>
+        <v>0.784260866775512</v>
       </c>
       <c r="K3">
-        <v>0.9497552159404906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.91630690643123</v>
-      </c>
-      <c r="C4">
-        <v>0.8526371422940584</v>
-      </c>
-      <c r="D4">
-        <v>0.8138888537699265</v>
-      </c>
-      <c r="E4">
-        <v>0.8172968510286494</v>
-      </c>
-      <c r="F4">
-        <v>0.8455324900865093</v>
-      </c>
-      <c r="G4">
-        <v>0.9261708296257554</v>
-      </c>
-      <c r="H4">
-        <v>0.9059310797221852</v>
-      </c>
-      <c r="I4">
-        <v>0.936180436796952</v>
-      </c>
-      <c r="J4">
-        <v>0.9067019340327024</v>
-      </c>
-      <c r="K4">
-        <v>0.9441280826008216</v>
+        <v>0.7371592702816715</v>
+      </c>
+      <c r="L3">
+        <v>0.7971710990920595</v>
+      </c>
+      <c r="M3">
+        <v>0.748141716385965</v>
+      </c>
+      <c r="N3">
+        <v>0.7336108998347408</v>
+      </c>
+      <c r="O3">
+        <v>0.7242753025270161</v>
+      </c>
+      <c r="P3">
+        <v>0.7062182200233744</v>
+      </c>
+      <c r="Q3">
+        <v>0.7437051849779004</v>
+      </c>
+      <c r="R3">
+        <v>0.6801456125486871</v>
+      </c>
+      <c r="S3">
+        <v>0.7575616143395498</v>
+      </c>
+      <c r="T3">
+        <v>0.7418690265676706</v>
+      </c>
+      <c r="U3">
+        <v>0.7547543017329401</v>
+      </c>
+      <c r="V3">
+        <v>0.7162319131916088</v>
+      </c>
+      <c r="W3">
+        <v>0.7199352630219851</v>
+      </c>
+      <c r="X3">
+        <v>0.8351424210372881</v>
+      </c>
+      <c r="Y3">
+        <v>0.72222405055936</v>
+      </c>
+      <c r="Z3">
+        <v>0.7937256921161473</v>
+      </c>
+      <c r="AA3">
+        <v>0.7353326921952005</v>
+      </c>
+      <c r="AB3">
+        <v>0.7838102297751125</v>
+      </c>
+      <c r="AC3">
+        <v>0.757174731454799</v>
+      </c>
+      <c r="AD3">
+        <v>0.7556831330311677</v>
+      </c>
+      <c r="AE3">
+        <v>0.735540178774827</v>
+      </c>
+      <c r="AF3">
+        <v>0.9527072031525046</v>
+      </c>
+      <c r="AI3">
+        <v>0.90527621084259</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9226494574727626</v>
+      </c>
+      <c r="AK3">
+        <v>0.9538003729925516</v>
+      </c>
+      <c r="AL3">
+        <v>0.9586180572605724</v>
+      </c>
+      <c r="AM3">
+        <v>0.9570428456424404</v>
+      </c>
+      <c r="AN3">
+        <v>0.9527084891396216</v>
+      </c>
+      <c r="AO3">
+        <v>0.9326089009428564</v>
+      </c>
+      <c r="AP3">
+        <v>0.963202664520318</v>
+      </c>
+      <c r="AQ3">
+        <v>0.9634640643124726</v>
+      </c>
+      <c r="AS3">
+        <v>0.9374367854953464</v>
+      </c>
+      <c r="AT3">
+        <v>0.9577749906959044</v>
+      </c>
+      <c r="AU3">
+        <v>0.9602740136407084</v>
+      </c>
+      <c r="AV3">
+        <v>0.9529437158678188</v>
+      </c>
+      <c r="AW3">
+        <v>0.9254330753545938</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9249392918868982</v>
+      </c>
+      <c r="BA3">
+        <v>0.9475646775054342</v>
+      </c>
+      <c r="BB3">
+        <v>0.9463182182370992</v>
+      </c>
+      <c r="BC3">
+        <v>0.9383877073446516</v>
+      </c>
+      <c r="BD3">
+        <v>0.94654987151641</v>
+      </c>
+      <c r="BE3">
+        <v>0.9115019863329954</v>
+      </c>
+      <c r="BF3">
+        <v>0.8100824425522544</v>
+      </c>
+      <c r="BG3">
+        <v>0.9472867668321512</v>
+      </c>
+      <c r="BH3">
+        <v>0.9421777586525548</v>
+      </c>
+      <c r="BI3">
+        <v>0.9357874499265268</v>
       </c>
     </row>
   </sheetData>
